--- a/Lea.xlsx
+++ b/Lea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d2d1b0b453ad696/Private/Lea/LoveYouEveryDay/leab2409.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4271968F-2D90-459A-A970-AB76A1F39541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48AE1F6E-0083-4C0A-BD76-B33A908194BE}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{4271968F-2D90-459A-A970-AB76A1F39541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B890D803-79DE-4D0C-A087-3C42A77E3991}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33495C3E-A733-4176-A8B6-DF2BB89776B6}"/>
+    <workbookView xWindow="0" yWindow="1404" windowWidth="21600" windowHeight="11388" xr2:uid="{33495C3E-A733-4176-A8B6-DF2BB89776B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Dinner in cheddar gorge</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Staying up until the sunrise talking</t>
   </si>
   <si>
-    <t>How caring you are</t>
-  </si>
-  <si>
     <t>The way you look at me</t>
   </si>
   <si>
@@ -175,6 +172,102 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>How incredibly caring you are</t>
+  </si>
+  <si>
+    <t>Here's a little something I love about you</t>
+  </si>
+  <si>
+    <t>Here is a thing I love doing with you</t>
+  </si>
+  <si>
+    <t>Here's a memory of us I love</t>
+  </si>
+  <si>
+    <t>Playing trivial pursuit with you in Stansbatch</t>
+  </si>
+  <si>
+    <t>Being silly in the shower</t>
+  </si>
+  <si>
+    <t>Being silly with you</t>
+  </si>
+  <si>
+    <t>Here's a memory of ours I love</t>
+  </si>
+  <si>
+    <t>Picking Guosto recipes</t>
+  </si>
+  <si>
+    <t>Fighting over who gets to pay for things</t>
+  </si>
+  <si>
+    <t>How ambitious you are</t>
+  </si>
+  <si>
+    <t>How successful I know you are going to be</t>
+  </si>
+  <si>
+    <t>Here's something I can't wait to do with you</t>
+  </si>
+  <si>
+    <t>Go to New Zealand</t>
+  </si>
+  <si>
+    <t>Here's a little something I can't wait to do with you</t>
+  </si>
+  <si>
+    <t>Something I am so excited to do with you</t>
+  </si>
+  <si>
+    <t>Kiss you</t>
+  </si>
+  <si>
+    <t>Tell you I love you</t>
+  </si>
+  <si>
+    <t>Here’s a little something I am so excited to do with you</t>
+  </si>
+  <si>
+    <t>Fall asleep next to you</t>
+  </si>
+  <si>
+    <t>Getting a tiny puppy doggie</t>
+  </si>
+  <si>
+    <t>Your style is awesome</t>
+  </si>
+  <si>
+    <t>You have great taste</t>
+  </si>
+  <si>
+    <t>You make awesome friends</t>
+  </si>
+  <si>
+    <t>You are so chill and fun and happy to be around</t>
+  </si>
+  <si>
+    <t>You make even the smallest things fun and interesting</t>
+  </si>
+  <si>
+    <t>Explore all kinds of places</t>
+  </si>
+  <si>
+    <t>Every single little thing you do</t>
+  </si>
+  <si>
+    <t>Absolutely everything about you</t>
+  </si>
+  <si>
+    <t>Your cooking</t>
+  </si>
+  <si>
+    <t>something I love about you</t>
+  </si>
+  <si>
+    <t>Find a flat for us</t>
   </si>
 </sst>
 </file>
@@ -526,361 +619,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A6D213-7AD0-46CC-935C-75C12F4B753F}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.89453125" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Lea.xlsx
+++ b/Lea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d2d1b0b453ad696/Private/Lea/LoveYouEveryDay/leab2409.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{4271968F-2D90-459A-A970-AB76A1F39541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B890D803-79DE-4D0C-A087-3C42A77E3991}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{4271968F-2D90-459A-A970-AB76A1F39541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{080A7E89-7FBA-40E3-A35A-BFC164601804}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1404" windowWidth="21600" windowHeight="11388" xr2:uid="{33495C3E-A733-4176-A8B6-DF2BB89776B6}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Bath bomb and champagne</t>
   </si>
   <si>
-    <t>Canoeing</t>
-  </si>
-  <si>
     <t>Road trip in Mallorca</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Find a flat for us</t>
+  </si>
+  <si>
+    <t>Canoeing in Wales</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A6D213-7AD0-46CC-935C-75C12F4B753F}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -634,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -661,495 +661,495 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
         <v>75</v>
-      </c>
-      <c r="B65" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
